--- a/www/IndicatorsPerCountry/Italy_NumberofWorkersInvolvedinLabourDisputes_TerritorialRef_1946_2012_CCode_380.xlsx
+++ b/www/IndicatorsPerCountry/Italy_NumberofWorkersInvolvedinLabourDisputes_TerritorialRef_1946_2012_CCode_380.xlsx
@@ -276,13 +276,13 @@
     <t>Velden, Sjaak van der (2015). Number of Workers Involved in Labour Disputes. http://hdl.handle.net/10622/M0PI4D, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_M0PI4D.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_M0PI4D.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_M0PI4D.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_M0PI4D.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_M0PI4D.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_M0PI4D.bib</t>
   </si>
 </sst>
 </file>
